--- a/Excel Data/PayrollFundTransfer.xlsx
+++ b/Excel Data/PayrollFundTransfer.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -74,15 +74,32 @@
   </si>
   <si>
     <t>ABCLPC</t>
+  </si>
+  <si>
+    <t>T.C (Azure)</t>
+  </si>
+  <si>
+    <t>T.C (Desc.)</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -97,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -105,12 +122,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,81 +519,95 @@
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>1000008617</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>500</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>20230106</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>560746</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>1003438322</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>20230106</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="4">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="4">
         <v>12345</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="M2" s="5">
+        <v>119832</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -487,21 +617,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="5">
+        <v>119833</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel Data/PayrollFundTransfer.xlsx
+++ b/Excel Data/PayrollFundTransfer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PayrollFundTransfer" sheetId="1" r:id="rId1"/>
@@ -509,14 +509,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -619,11 +632,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">

--- a/Excel Data/PayrollFundTransfer.xlsx
+++ b/Excel Data/PayrollFundTransfer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="PayrollFundTransfer" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t>Error</t>
+  </si>
+  <si>
+    <t>TREASURY.RATE</t>
+  </si>
+  <si>
+    <t>CUST.RATE</t>
+  </si>
+  <si>
+    <t>PAYMENT.DETAILS:1</t>
   </si>
 </sst>
 </file>
@@ -507,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,16 +532,17 @@
     <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -558,28 +568,37 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1000008617</v>
       </c>
@@ -604,23 +623,26 @@
       <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4">
         <v>1</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="4">
+      <c r="N2" s="4">
         <v>12345</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="5">
+      <c r="P2" s="5">
         <v>119832</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="6"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -632,7 +654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
